--- a/downloads/userdata.xlsx
+++ b/downloads/userdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhyan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\nova\server-side\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5234165-BAD5-4870-9C65-3C20D92DCFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B9972-8A75-4046-A15C-E41F8D88552B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +383,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5555555555</v>
+        <v>55555555555</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/userdata.xlsx
+++ b/downloads/userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\nova\server-side\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B9972-8A75-4046-A15C-E41F8D88552B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3EB0EF-8A3B-4D50-AD0D-1FAA55AD9DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>(726) 222 - 1745</t>
   </si>
 </sst>
 </file>
@@ -345,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -386,6 +389,11 @@
         <v>55555555555</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/downloads/userdata.xlsx
+++ b/downloads/userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\nova\server-side\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3EB0EF-8A3B-4D50-AD0D-1FAA55AD9DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1BF9F5-410D-418B-A3CA-4F2F20E69916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,2107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="698">
   <si>
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>(726) 222 - 1745</t>
+    <t> (726) 222 - 1745 </t>
+  </si>
+  <si>
+    <t> (210) 952 - 0851 </t>
+  </si>
+  <si>
+    <t> (210) 793 - 8115 </t>
+  </si>
+  <si>
+    <t> (210) 825 - 4331 </t>
+  </si>
+  <si>
+    <t> (210) 719 - 6239 </t>
+  </si>
+  <si>
+    <t> (210) 946 - 0958 </t>
+  </si>
+  <si>
+    <t> (210) 730 - 0329 </t>
+  </si>
+  <si>
+    <t> (210) 710 - 9776 </t>
+  </si>
+  <si>
+    <t> (219) 710 - 9776 </t>
+  </si>
+  <si>
+    <t> (210) 710 - 9667 </t>
+  </si>
+  <si>
+    <t> (220) 710 - 9776 </t>
+  </si>
+  <si>
+    <t> (210) 363 - 8226 </t>
+  </si>
+  <si>
+    <t> (210) 721 - 3309 </t>
+  </si>
+  <si>
+    <t> (830) 276 - 0063 </t>
+  </si>
+  <si>
+    <t> (210) 264 - 0964 </t>
+  </si>
+  <si>
+    <t> (210) 264 - 0963 </t>
+  </si>
+  <si>
+    <t> (210) 898 - 5992 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 4563 </t>
+  </si>
+  <si>
+    <t> (210) 381 - 8187 </t>
+  </si>
+  <si>
+    <t> (210) 914 - 9069 </t>
+  </si>
+  <si>
+    <t> (210) 982 - 9347 </t>
+  </si>
+  <si>
+    <t> (210) 744 - 1609 </t>
+  </si>
+  <si>
+    <t> (210) 329 - 2255 </t>
+  </si>
+  <si>
+    <t> (210) 902 - 1171 </t>
+  </si>
+  <si>
+    <t> (708) 495 - 2632 </t>
+  </si>
+  <si>
+    <t> (830) 580 - 5357 </t>
+  </si>
+  <si>
+    <t> (830) 580 - 5356 </t>
+  </si>
+  <si>
+    <t> (210) 439 - 6147 </t>
+  </si>
+  <si>
+    <t> (210) 527 - 0954 </t>
+  </si>
+  <si>
+    <t> (210) 537 - 0954 </t>
+  </si>
+  <si>
+    <t> (726) 500 - 7761 </t>
+  </si>
+  <si>
+    <t> (726) 500 - 7762 </t>
+  </si>
+  <si>
+    <t> (727) 500 - 7761 </t>
+  </si>
+  <si>
+    <t> (210) 454 - 0550 </t>
+  </si>
+  <si>
+    <t> (725) 500 - 7761 </t>
+  </si>
+  <si>
+    <t> (726) 509 - 7761 </t>
+  </si>
+  <si>
+    <t> (210) 975 - 0542 </t>
+  </si>
+  <si>
+    <t> (726) 895 - 1006 </t>
+  </si>
+  <si>
+    <t> (210) 778 - 7276 </t>
+  </si>
+  <si>
+    <t> (210) 788 - 7266 </t>
+  </si>
+  <si>
+    <t> (512) 644 - 3990 </t>
+  </si>
+  <si>
+    <t> (210) 788 - 7276 </t>
+  </si>
+  <si>
+    <t> (210) 995 - 3732 </t>
+  </si>
+  <si>
+    <t> (210) 905 - 3732 </t>
+  </si>
+  <si>
+    <t> (210) 905 - 3632 </t>
+  </si>
+  <si>
+    <t> (210) 905 - 3742 </t>
+  </si>
+  <si>
+    <t> (210) 906 - 3732 </t>
+  </si>
+  <si>
+    <t> (432) 466 - 6390 </t>
+  </si>
+  <si>
+    <t> (433) 466 - 6390 </t>
+  </si>
+  <si>
+    <t> (432) 466 - 6399 </t>
+  </si>
+  <si>
+    <t> (210) 740 - 5136 </t>
+  </si>
+  <si>
+    <t> (726) 243 - 7572 </t>
+  </si>
+  <si>
+    <t> (210) 809 - 1968 </t>
+  </si>
+  <si>
+    <t> (210) 994 - 1316 </t>
+  </si>
+  <si>
+    <t> (210) 442 - 5588 </t>
+  </si>
+  <si>
+    <t> (210) 243 - 7252 </t>
+  </si>
+  <si>
+    <t> (830) 631 - 1339 </t>
+  </si>
+  <si>
+    <t> (469) 890 - 6700 </t>
+  </si>
+  <si>
+    <t> (830) 742 - 5971 </t>
+  </si>
+  <si>
+    <t> (830) 251 - 8829 </t>
+  </si>
+  <si>
+    <t> (210) 326 - 2236 </t>
+  </si>
+  <si>
+    <t> (210) 326 - 2226 </t>
+  </si>
+  <si>
+    <t> (210) 951 - 1546 </t>
+  </si>
+  <si>
+    <t> (210) 439 - 0972 </t>
+  </si>
+  <si>
+    <t> (726) 888 - 0387 </t>
+  </si>
+  <si>
+    <t> (210) 744 - 7640 </t>
+  </si>
+  <si>
+    <t> (210) 762 - 0272 </t>
+  </si>
+  <si>
+    <t> (210) 943 - 3112 </t>
+  </si>
+  <si>
+    <t> (956) 732 - 9511 </t>
+  </si>
+  <si>
+    <t> (956) 525 - 1459 </t>
+  </si>
+  <si>
+    <t> (210) 956 - 5251 </t>
+  </si>
+  <si>
+    <t> (936) 635 - 3716 </t>
+  </si>
+  <si>
+    <t> (210) 974 - 7835 </t>
+  </si>
+  <si>
+    <t> (210) 960 - 7603 </t>
+  </si>
+  <si>
+    <t> (210) 316 - 9904 </t>
+  </si>
+  <si>
+    <t> (210) 469 - 5601 </t>
+  </si>
+  <si>
+    <t> (946) 732 - 9511 </t>
+  </si>
+  <si>
+    <t> (954) 732 - 9511 </t>
+  </si>
+  <si>
+    <t> (210) 430 - 0085 </t>
+  </si>
+  <si>
+    <t> (345) 677 - 7777 </t>
+  </si>
+  <si>
+    <t> (726) 777 - 8951 </t>
+  </si>
+  <si>
+    <t> (210) 873 - 4031 </t>
+  </si>
+  <si>
+    <t> (210) 363 - 5416 </t>
+  </si>
+  <si>
+    <t> (210) 915 - 7898 </t>
+  </si>
+  <si>
+    <t> (220) 915 - 7898 </t>
+  </si>
+  <si>
+    <t> (210) 925 - 7898 </t>
+  </si>
+  <si>
+    <t> (210) 915 - 9878 </t>
+  </si>
+  <si>
+    <t> (210) 915 - 9848 </t>
+  </si>
+  <si>
+    <t> (210) 967 - 9023 </t>
+  </si>
+  <si>
+    <t> (219) 967 - 9023 </t>
+  </si>
+  <si>
+    <t> (210) 797 - 8173 </t>
+  </si>
+  <si>
+    <t> (210) 535 - 2473 </t>
+  </si>
+  <si>
+    <t> (220) 967 - 9923 </t>
+  </si>
+  <si>
+    <t> (120) 967 - 9023 </t>
+  </si>
+  <si>
+    <t> (210) 967 - 9923 </t>
+  </si>
+  <si>
+    <t> (210) 679 - 9023 </t>
+  </si>
+  <si>
+    <t> (210) 571 - 8634 </t>
+  </si>
+  <si>
+    <t> (219) 967 - 9024 </t>
+  </si>
+  <si>
+    <t> (210) 379 - 0177 </t>
+  </si>
+  <si>
+    <t> (210) 668 - 6981 </t>
+  </si>
+  <si>
+    <t> (210) 716 - 2515 </t>
+  </si>
+  <si>
+    <t> (903) 449 - 7248 </t>
+  </si>
+  <si>
+    <t> (909) 034 - 4972 </t>
+  </si>
+  <si>
+    <t> (903) 444 - 9724 </t>
+  </si>
+  <si>
+    <t> (210) 383 - 5096 </t>
+  </si>
+  <si>
+    <t> (832) 323 - 1184 </t>
+  </si>
+  <si>
+    <t> (210) 237 - 6028 </t>
+  </si>
+  <si>
+    <t> (210) 902 - 8639 </t>
+  </si>
+  <si>
+    <t> (210) 902 - 8649 </t>
+  </si>
+  <si>
+    <t> (210) 902 - 8619 </t>
+  </si>
+  <si>
+    <t> (120) 902 - 8639 </t>
+  </si>
+  <si>
+    <t> (123) 477 - 8889 </t>
+  </si>
+  <si>
+    <t> (233) 345 - 5888 </t>
+  </si>
+  <si>
+    <t> (345) 569 - 8999 </t>
+  </si>
+  <si>
+    <t> (224) 567 - 9000 </t>
+  </si>
+  <si>
+    <t> (210) 986 - 3478 </t>
+  </si>
+  <si>
+    <t> (245) 567 - 8086 </t>
+  </si>
+  <si>
+    <t> (210) 777 - 0382 </t>
+  </si>
+  <si>
+    <t> (210) 777 - 3820 </t>
+  </si>
+  <si>
+    <t> (210) 777 - 0383 </t>
+  </si>
+  <si>
+    <t> (210) 770 - 0382 </t>
+  </si>
+  <si>
+    <t> (219) 777 - 0382 </t>
+  </si>
+  <si>
+    <t> (210) 719 - 7266 </t>
+  </si>
+  <si>
+    <t> (726) 777 - 9884 </t>
+  </si>
+  <si>
+    <t> (346) 302 - 8267 </t>
+  </si>
+  <si>
+    <t> (346) 269 - 7661 </t>
+  </si>
+  <si>
+    <t> (832) 323 - 1183 </t>
+  </si>
+  <si>
+    <t> (281) 203 - 2747 </t>
+  </si>
+  <si>
+    <t> (832) 323 - 1283 </t>
+  </si>
+  <si>
+    <t> (281) 207 - 2747 </t>
+  </si>
+  <si>
+    <t> (210) 982 - 8573 </t>
+  </si>
+  <si>
+    <t> (210) 289 - 9349 </t>
+  </si>
+  <si>
+    <t> (210) 996 - 5135 </t>
+  </si>
+  <si>
+    <t> (210) 544 - 9849 </t>
+  </si>
+  <si>
+    <t> (830) 346 - 7304 </t>
+  </si>
+  <si>
+    <t> (830) 476 - 7261 </t>
+  </si>
+  <si>
+    <t> (832) 323 - 1173 </t>
+  </si>
+  <si>
+    <t> (210) 724 - 0149 </t>
+  </si>
+  <si>
+    <t> (210) 724 - 0140 </t>
+  </si>
+  <si>
+    <t> (210) 306 - 8464 </t>
+  </si>
+  <si>
+    <t> (210) 378 - 7348 </t>
+  </si>
+  <si>
+    <t> (512) 710 - 2101 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 9196 </t>
+  </si>
+  <si>
+    <t> (210) 238 - 5780 </t>
+  </si>
+  <si>
+    <t> (210) 238 - 5789 </t>
+  </si>
+  <si>
+    <t> (830) 635 - 1074 </t>
+  </si>
+  <si>
+    <t> (210) 589 - 7425 </t>
+  </si>
+  <si>
+    <t> (210) 503 - 8800 </t>
+  </si>
+  <si>
+    <t> (210) 560 - 4104 </t>
+  </si>
+  <si>
+    <t> (469) 761 - 4187 </t>
+  </si>
+  <si>
+    <t> (210) 589 - 7426 </t>
+  </si>
+  <si>
+    <t> (220) 589 - 7425 </t>
+  </si>
+  <si>
+    <t> (726) 726 - 0274 </t>
+  </si>
+  <si>
+    <t> (775) 360 - 9884 </t>
+  </si>
+  <si>
+    <t> (210) 500 - 0483 </t>
+  </si>
+  <si>
+    <t> (210) 917 - 5402 </t>
+  </si>
+  <si>
+    <t> (726) 242 - 0960 </t>
+  </si>
+  <si>
+    <t> (210) 313 - 0714 </t>
+  </si>
+  <si>
+    <t> (210) 469 - 7358 </t>
+  </si>
+  <si>
+    <t> (210) 570 - 8123 </t>
+  </si>
+  <si>
+    <t> (619) 395 - 7020 </t>
+  </si>
+  <si>
+    <t> (619) 396 - 7020 </t>
+  </si>
+  <si>
+    <t> (210) 840 - 2389 </t>
+  </si>
+  <si>
+    <t> (726) 242 - 2162 </t>
+  </si>
+  <si>
+    <t> (726) 225 - 6515 </t>
+  </si>
+  <si>
+    <t> (726) 223 - 1745 </t>
+  </si>
+  <si>
+    <t> (726) 122 - 2174 </t>
+  </si>
+  <si>
+    <t> (725) 222 - 1745 </t>
+  </si>
+  <si>
+    <t> (210) 718 - 6626 </t>
+  </si>
+  <si>
+    <t> (210) 685 - 2799 </t>
+  </si>
+  <si>
+    <t> (210) 425 - 7162 </t>
+  </si>
+  <si>
+    <t> (726) 247 - 4339 </t>
+  </si>
+  <si>
+    <t> (726) 500 - 6152 </t>
+  </si>
+  <si>
+    <t> (210) 894 - 8371 </t>
+  </si>
+  <si>
+    <t> (210) 269 - 9836 </t>
+  </si>
+  <si>
+    <t> (210) 948 - 3640 </t>
+  </si>
+  <si>
+    <t> (210) 542 - 0019 </t>
+  </si>
+  <si>
+    <t> (210) 503 - 0337 </t>
+  </si>
+  <si>
+    <t> (210) 809 - 1624 </t>
+  </si>
+  <si>
+    <t> (210) 948 - 3649 </t>
+  </si>
+  <si>
+    <t> (210) 686 - 2505 </t>
+  </si>
+  <si>
+    <t> (210) 835 - 8490 </t>
+  </si>
+  <si>
+    <t> (210) 836 - 8490 </t>
+  </si>
+  <si>
+    <t> (210) 835 - 3590 </t>
+  </si>
+  <si>
+    <t> (210) 381 - 7460 </t>
+  </si>
+  <si>
+    <t> (210) 717 - 2458 </t>
+  </si>
+  <si>
+    <t> (210) 454 - 4074 </t>
+  </si>
+  <si>
+    <t> (210) 914 - 0217 </t>
+  </si>
+  <si>
+    <t> (210) 773 - 5960 </t>
+  </si>
+  <si>
+    <t> (210) 773 - 5970 </t>
+  </si>
+  <si>
+    <t> (220) 773 - 5960 </t>
+  </si>
+  <si>
+    <t> (210) 673 - 5960 </t>
+  </si>
+  <si>
+    <t> (210) 306 - 9696 </t>
+  </si>
+  <si>
+    <t> (210) 416 - 8807 </t>
+  </si>
+  <si>
+    <t> (210) 416 - 8806 </t>
+  </si>
+  <si>
+    <t> (210) 418 - 8807 </t>
+  </si>
+  <si>
+    <t> (210) 416 - 8808 </t>
+  </si>
+  <si>
+    <t> (210) 685 - 5595 </t>
+  </si>
+  <si>
+    <t> (210) 606 - 1850 </t>
+  </si>
+  <si>
+    <t> (210) 935 - 1487 </t>
+  </si>
+  <si>
+    <t> (210) 777 - 8140 </t>
+  </si>
+  <si>
+    <t> (830) 355 - 8758 </t>
+  </si>
+  <si>
+    <t> (210) 758 - 7726 </t>
+  </si>
+  <si>
+    <t> (830) 572 - 5383 </t>
+  </si>
+  <si>
+    <t> (210) 373 - 0273 </t>
+  </si>
+  <si>
+    <t> (210) 988 - 6978 </t>
+  </si>
+  <si>
+    <t> (210) 574 - 6790 </t>
+  </si>
+  <si>
+    <t> (210) 469 - 8830 </t>
+  </si>
+  <si>
+    <t> (210) 905 - 7871 </t>
+  </si>
+  <si>
+    <t> (210) 810 - 6117 </t>
+  </si>
+  <si>
+    <t> (210) 852 - 8888 </t>
+  </si>
+  <si>
+    <t> (210) 584 - 5868 </t>
+  </si>
+  <si>
+    <t> (210) 992 - 6415 </t>
+  </si>
+  <si>
+    <t> (210) 649 - 5916 </t>
+  </si>
+  <si>
+    <t> (830) 444 - 8523 </t>
+  </si>
+  <si>
+    <t> (210) 884 - 4686 </t>
+  </si>
+  <si>
+    <t> (830) 444 - 1113 </t>
+  </si>
+  <si>
+    <t> (210) 960 - 5611 </t>
+  </si>
+  <si>
+    <t> (713) 449 - 4580 </t>
+  </si>
+  <si>
+    <t> (830) 955 - 1097 </t>
+  </si>
+  <si>
+    <t> (210) 909 - 1567 </t>
+  </si>
+  <si>
+    <t> (210) 500 - 3588 </t>
+  </si>
+  <si>
+    <t> (120) 500 - 3588 </t>
+  </si>
+  <si>
+    <t> (210) 509 - 3588 </t>
+  </si>
+  <si>
+    <t> (210) 300 - 3500 </t>
+  </si>
+  <si>
+    <t> (210) 500 - 3500 </t>
+  </si>
+  <si>
+    <t> (210) 500 - 3555 </t>
+  </si>
+  <si>
+    <t> (210) 500 - 3558 </t>
+  </si>
+  <si>
+    <t> (210) 500 - 2588 </t>
+  </si>
+  <si>
+    <t> (830) 822 - 0011 </t>
+  </si>
+  <si>
+    <t> (210) 794 - 2526 </t>
+  </si>
+  <si>
+    <t> (220) 794 - 2526 </t>
+  </si>
+  <si>
+    <t> (210) 795 - 2526 </t>
+  </si>
+  <si>
+    <t> (210) 794 - 2536 </t>
+  </si>
+  <si>
+    <t> (210) 400 - 4312 </t>
+  </si>
+  <si>
+    <t> (210) 915 - 4868 </t>
+  </si>
+  <si>
+    <t> (210) 890 - 0655 </t>
+  </si>
+  <si>
+    <t> (210) 388 - 1310 </t>
+  </si>
+  <si>
+    <t> (210) 557 - 3343 </t>
+  </si>
+  <si>
+    <t> (210) 965 - 4695 </t>
+  </si>
+  <si>
+    <t> (210) 781 - 0698 </t>
+  </si>
+  <si>
+    <t> (210) 400 - 6794 </t>
+  </si>
+  <si>
+    <t> (210) 836 - 5201 </t>
+  </si>
+  <si>
+    <t> (210) 781 - 0697 </t>
+  </si>
+  <si>
+    <t> (830) 483 - 0090 </t>
+  </si>
+  <si>
+    <t> (830) 513 - 7634 </t>
+  </si>
+  <si>
+    <t> (210) 540 - 3417 </t>
+  </si>
+  <si>
+    <t> (210) 454 - 1458 </t>
+  </si>
+  <si>
+    <t> (210) 809 - 3301 </t>
+  </si>
+  <si>
+    <t> (210) 602 - 4330 </t>
+  </si>
+  <si>
+    <t> (210) 394 - 1807 </t>
+  </si>
+  <si>
+    <t> (210) 741 - 3941 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 3264 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 3265 </t>
+  </si>
+  <si>
+    <t> (210) 463 - 0950 </t>
+  </si>
+  <si>
+    <t> (210) 269 - 0505 </t>
+  </si>
+  <si>
+    <t> (210) 284 - 6924 </t>
+  </si>
+  <si>
+    <t> (210) 282 - 6924 </t>
+  </si>
+  <si>
+    <t> (830) 469 - 6005 </t>
+  </si>
+  <si>
+    <t> (830) 364 - 1038 </t>
+  </si>
+  <si>
+    <t> (210) 741 - 3998 </t>
+  </si>
+  <si>
+    <t> (210) 910 - 4748 </t>
+  </si>
+  <si>
+    <t> (210) 425 - 7497 </t>
+  </si>
+  <si>
+    <t> (210) 609 - 2035 </t>
+  </si>
+  <si>
+    <t> (726) 247 - 1247 </t>
+  </si>
+  <si>
+    <t> (210) 797 - 8168 </t>
+  </si>
+  <si>
+    <t> (210) 852 - 9013 </t>
+  </si>
+  <si>
+    <t> (726) 221 - 9435 </t>
+  </si>
+  <si>
+    <t> (210) 594 - 4078 </t>
+  </si>
+  <si>
+    <t> (210) 873 - 5639 </t>
+  </si>
+  <si>
+    <t> (210) 618 - 0305 </t>
+  </si>
+  <si>
+    <t> (210) 681 - 0305 </t>
+  </si>
+  <si>
+    <t> (210) 410 - 1304 </t>
+  </si>
+  <si>
+    <t> (210) 619 - 9773 </t>
+  </si>
+  <si>
+    <t> (210) 719 - 9774 </t>
+  </si>
+  <si>
+    <t> (210) 988 - 4741 </t>
+  </si>
+  <si>
+    <t> (210) 636 - 6256 </t>
+  </si>
+  <si>
+    <t> (210) 430 - 4293 </t>
+  </si>
+  <si>
+    <t> (210) 430 - 4295 </t>
+  </si>
+  <si>
+    <t> (830) 349 - 8057 </t>
+  </si>
+  <si>
+    <t> (830) 384 - 0452 </t>
+  </si>
+  <si>
+    <t> (830) 590 - 3433 </t>
+  </si>
+  <si>
+    <t> (210) 619 - 9774 </t>
+  </si>
+  <si>
+    <t> (726) 208 - 9293 </t>
+  </si>
+  <si>
+    <t> (726) 234 - 2127 </t>
+  </si>
+  <si>
+    <t> (210) 273 - 0957 </t>
+  </si>
+  <si>
+    <t> (210) 400 - 2498 </t>
+  </si>
+  <si>
+    <t> (210) 948 - 0907 </t>
+  </si>
+  <si>
+    <t> (936) 232 - 5603 </t>
+  </si>
+  <si>
+    <t> (936) 232 - 5604 </t>
+  </si>
+  <si>
+    <t> (935) 232 - 5604 </t>
+  </si>
+  <si>
+    <t> (926) 232 - 5604 </t>
+  </si>
+  <si>
+    <t> (936) 232 - 6604 </t>
+  </si>
+  <si>
+    <t> (936) 233 - 5604 </t>
+  </si>
+  <si>
+    <t> (726) 243 - 9761 </t>
+  </si>
+  <si>
+    <t> (726) 238 - 9761 </t>
+  </si>
+  <si>
+    <t> (726) 243 - 0761 </t>
+  </si>
+  <si>
+    <t> (210) 278 - 6071 </t>
+  </si>
+  <si>
+    <t> (210) 278 - 6078 </t>
+  </si>
+  <si>
+    <t> (830) 931 - 1553 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 1494 </t>
+  </si>
+  <si>
+    <t> (726) 210 - 7630 </t>
+  </si>
+  <si>
+    <t> (361) 212 - 2828 </t>
+  </si>
+  <si>
+    <t> (210) 873 - 4913 </t>
+  </si>
+  <si>
+    <t> (210) 454 - 5074 </t>
+  </si>
+  <si>
+    <t> (210) 765 - 6162 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 0375 </t>
+  </si>
+  <si>
+    <t> (210) 873 - 2712 </t>
+  </si>
+  <si>
+    <t> (830) 742 - 5997 </t>
+  </si>
+  <si>
+    <t> (210) 975 - 6448 </t>
+  </si>
+  <si>
+    <t> (469) 615 - 8375 </t>
+  </si>
+  <si>
+    <t> (210) 606 - 5157 </t>
+  </si>
+  <si>
+    <t> (682) 426 - 3043 </t>
+  </si>
+  <si>
+    <t> (210) 550 - 6442 </t>
+  </si>
+  <si>
+    <t> (210) 550 - 6443 </t>
+  </si>
+  <si>
+    <t> (210) 831 - 1583 </t>
+  </si>
+  <si>
+    <t> (210) 473 - 6491 </t>
+  </si>
+  <si>
+    <t> (210) 473 - 6391 </t>
+  </si>
+  <si>
+    <t> (210) 463 - 6481 </t>
+  </si>
+  <si>
+    <t> (210) 772 - 4646 </t>
+  </si>
+  <si>
+    <t> (726) 300 - 5058 </t>
+  </si>
+  <si>
+    <t> (774) 473 - 8568 </t>
+  </si>
+  <si>
+    <t> (210) 891 - 5652 </t>
+  </si>
+  <si>
+    <t> (210) 514 - 9427 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 5803 </t>
+  </si>
+  <si>
+    <t> (726) 213 - 1977 </t>
+  </si>
+  <si>
+    <t> (210) 850 - 9443 </t>
+  </si>
+  <si>
+    <t> (210) 449 - 7192 </t>
+  </si>
+  <si>
+    <t> (736) 210 - 2879 </t>
+  </si>
+  <si>
+    <t> (210) 890 - 1076 </t>
+  </si>
+  <si>
+    <t> (726) 243 - 9435 </t>
+  </si>
+  <si>
+    <t> (210) 251 - 5424 </t>
+  </si>
+  <si>
+    <t> (210) 343 - 5471 </t>
+  </si>
+  <si>
+    <t> (210) 836 - 5448 </t>
+  </si>
+  <si>
+    <t> (737) 343 - 5471 </t>
+  </si>
+  <si>
+    <t> (210) 902 - 6073 </t>
+  </si>
+  <si>
+    <t> (726) 210 - 2879 </t>
+  </si>
+  <si>
+    <t> (826) 210 - 2879 </t>
+  </si>
+  <si>
+    <t> (210) 516 - 5821 </t>
+  </si>
+  <si>
+    <t> (726) 243 - 3086 </t>
+  </si>
+  <si>
+    <t> (210) 723 - 7846 </t>
+  </si>
+  <si>
+    <t> (210) 396 - 8952 </t>
+  </si>
+  <si>
+    <t> (219) 962 - 0081 </t>
+  </si>
+  <si>
+    <t> (830) 212 - 0320 </t>
+  </si>
+  <si>
+    <t> (210) 668 - 4009 </t>
+  </si>
+  <si>
+    <t> (210) 993 - 7657 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 5936 </t>
+  </si>
+  <si>
+    <t> (210) 618 - 4683 </t>
+  </si>
+  <si>
+    <t> (210) 717 - 4227 </t>
+  </si>
+  <si>
+    <t> (210) 217 - 9856 </t>
+  </si>
+  <si>
+    <t> (210) 926 - 8400 </t>
+  </si>
+  <si>
+    <t> (726) 666 - 1972 </t>
+  </si>
+  <si>
+    <t> (726) 217 - 9856 </t>
+  </si>
+  <si>
+    <t> (210) 505 - 2060 </t>
+  </si>
+  <si>
+    <t> (210) 727 - 7471 </t>
+  </si>
+  <si>
+    <t> (210) 426 - 7037 </t>
+  </si>
+  <si>
+    <t> (210) 840 - 6914 </t>
+  </si>
+  <si>
+    <t> (210) 502 - 8604 </t>
+  </si>
+  <si>
+    <t> (210) 318 - 6149 </t>
+  </si>
+  <si>
+    <t> (120) 502 - 8604 </t>
+  </si>
+  <si>
+    <t> (210) 897 - 9079 </t>
+  </si>
+  <si>
+    <t> (830) 581 - 1816 </t>
+  </si>
+  <si>
+    <t> (210) 420 - 6098 </t>
+  </si>
+  <si>
+    <t> (726) 239 - 9139 </t>
+  </si>
+  <si>
+    <t> (210) 396 - 8611 </t>
+  </si>
+  <si>
+    <t> (210) 837 - 6701 </t>
+  </si>
+  <si>
+    <t> (210) 875 - 8437 </t>
+  </si>
+  <si>
+    <t> (619) 737 - 6444 </t>
+  </si>
+  <si>
+    <t> (512) 775 - 5536 </t>
+  </si>
+  <si>
+    <t> (210) 553 - 7866 </t>
+  </si>
+  <si>
+    <t> (210) 537 - 8669 </t>
+  </si>
+  <si>
+    <t> (361) 549 - 2112 </t>
+  </si>
+  <si>
+    <t> (210) 469 - 8702 </t>
+  </si>
+  <si>
+    <t> (361) 415 - 7532 </t>
+  </si>
+  <si>
+    <t> (210) 571 - 2968 </t>
+  </si>
+  <si>
+    <t> (210) 779 - 5423 </t>
+  </si>
+  <si>
+    <t> (210) 409 - 8361 </t>
+  </si>
+  <si>
+    <t> (210) 259 - 1712 </t>
+  </si>
+  <si>
+    <t> (210) 527 - 6481 </t>
+  </si>
+  <si>
+    <t> (210) 974 - 8760 </t>
+  </si>
+  <si>
+    <t> (210) 685 - 1758 </t>
+  </si>
+  <si>
+    <t> (210) 986 - 2349 </t>
+  </si>
+  <si>
+    <t> (830) 369 - 1849 </t>
+  </si>
+  <si>
+    <t> (210) 803 - 1729 </t>
+  </si>
+  <si>
+    <t> (310) 803 - 1729 </t>
+  </si>
+  <si>
+    <t> (830) 290 - 5168 </t>
+  </si>
+  <si>
+    <t> (210) 330 - 0450 </t>
+  </si>
+  <si>
+    <t> (210) 728 - 0374 </t>
+  </si>
+  <si>
+    <t> (210) 859 - 4618 </t>
+  </si>
+  <si>
+    <t> (830) 876 - 6691 </t>
+  </si>
+  <si>
+    <t> (726) 222 - 1009 </t>
+  </si>
+  <si>
+    <t> (210) 974 - 4326 </t>
+  </si>
+  <si>
+    <t> (210) 686 - 7727 </t>
+  </si>
+  <si>
+    <t> (210) 753 - 9425 </t>
+  </si>
+  <si>
+    <t> (210) 970 - 4815 </t>
+  </si>
+  <si>
+    <t> (210) 975 - 4645 </t>
+  </si>
+  <si>
+    <t> (210) 209 - 2913 </t>
+  </si>
+  <si>
+    <t> (210) 910 - 9807 </t>
+  </si>
+  <si>
+    <t> (210) 914 - 4065 </t>
+  </si>
+  <si>
+    <t> (346) 842 - 8244 </t>
+  </si>
+  <si>
+    <t> (210) 779 - 4804 </t>
+  </si>
+  <si>
+    <t> (210) 799 - 4804 </t>
+  </si>
+  <si>
+    <t> (210) 415 - 2463 </t>
+  </si>
+  <si>
+    <t> (210) 891 - 3663 </t>
+  </si>
+  <si>
+    <t> (726) 219 - 7681 </t>
+  </si>
+  <si>
+    <t> (210) 769 - 4677 </t>
+  </si>
+  <si>
+    <t> (210) 591 - 2050 </t>
+  </si>
+  <si>
+    <t> (210) 315 - 8802 </t>
+  </si>
+  <si>
+    <t> (956) 984 - 8257 </t>
+  </si>
+  <si>
+    <t> (210) 473 - 2685 </t>
+  </si>
+  <si>
+    <t> (726) 500 - 6226 </t>
+  </si>
+  <si>
+    <t> (727) 500 - 6226 </t>
+  </si>
+  <si>
+    <t> (726) 500 - 6227 </t>
+  </si>
+  <si>
+    <t> (726) 500 - 6221 </t>
+  </si>
+  <si>
+    <t> (210) 842 - 0862 </t>
+  </si>
+  <si>
+    <t> (210) 809 - 8628 </t>
+  </si>
+  <si>
+    <t> (210) 848 - 7610 </t>
+  </si>
+  <si>
+    <t> (210) 459 - 1773 </t>
+  </si>
+  <si>
+    <t> (210) 873 - 2391 </t>
+  </si>
+  <si>
+    <t> (210) 997 - 0890 </t>
+  </si>
+  <si>
+    <t> (210) 276 - 1723 </t>
+  </si>
+  <si>
+    <t> (210) 890 - 1079 </t>
+  </si>
+  <si>
+    <t> (210) 988 - 7043 </t>
+  </si>
+  <si>
+    <t> (726) 244 - 4368 </t>
+  </si>
+  <si>
+    <t> (210) 987 - 1171 </t>
+  </si>
+  <si>
+    <t> (210) 426 - 8037 </t>
+  </si>
+  <si>
+    <t> (210) 279 - 3633 </t>
+  </si>
+  <si>
+    <t> (210) 663 - 6752 </t>
+  </si>
+  <si>
+    <t> (210) 389 - 3784 </t>
+  </si>
+  <si>
+    <t> (726) 241 - 3087 </t>
+  </si>
+  <si>
+    <t> (210) 812 - 0928 </t>
+  </si>
+  <si>
+    <t> (310) 812 - 0928 </t>
+  </si>
+  <si>
+    <t> (210) 264 - 3447 </t>
+  </si>
+  <si>
+    <t> (726) 239 - 1015 </t>
+  </si>
+  <si>
+    <t> (310) 264 - 3447 </t>
+  </si>
+  <si>
+    <t> (716) 239 - 1015 </t>
+  </si>
+  <si>
+    <t> (727) 239 - 1015 </t>
+  </si>
+  <si>
+    <t> (726) 239 - 1016 </t>
+  </si>
+  <si>
+    <t> (210) 874 - 9201 </t>
+  </si>
+  <si>
+    <t> (210) 625 - 0442 </t>
+  </si>
+  <si>
+    <t> (949) 939 - 7428 </t>
+  </si>
+  <si>
+    <t> (210) 777 - 0160 </t>
+  </si>
+  <si>
+    <t> (210) 810 - 1491 </t>
+  </si>
+  <si>
+    <t> (830) 716 - 1700 </t>
+  </si>
+  <si>
+    <t> (210) 873 - 0761 </t>
+  </si>
+  <si>
+    <t> (219) 873 - 0761 </t>
+  </si>
+  <si>
+    <t> (210) 962 - 0081 </t>
+  </si>
+  <si>
+    <t> (210) 965 - 9455 </t>
+  </si>
+  <si>
+    <t> (246) 541 - 1630 </t>
+  </si>
+  <si>
+    <t> (832) 864 - 9064 </t>
+  </si>
+  <si>
+    <t> (210) 649 - 5114 </t>
+  </si>
+  <si>
+    <t> (210) 385 - 0665 </t>
+  </si>
+  <si>
+    <t> (210) 718 - 6313 </t>
+  </si>
+  <si>
+    <t> (210) 990 - 1964 </t>
+  </si>
+  <si>
+    <t> (682) 666 - 5621 </t>
+  </si>
+  <si>
+    <t> (210) 712 - 7210 </t>
+  </si>
+  <si>
+    <t> (210) 255 - 9303 </t>
+  </si>
+  <si>
+    <t> (832) 525 - 1122 </t>
+  </si>
+  <si>
+    <t> (210) 717 - 5449 </t>
+  </si>
+  <si>
+    <t> (210) 550 - 8581 </t>
+  </si>
+  <si>
+    <t> (839) 444 - 1978 </t>
+  </si>
+  <si>
+    <t> (210) 794 - 5196 </t>
+  </si>
+  <si>
+    <t> (956) 667 - 9563 </t>
+  </si>
+  <si>
+    <t> (210) 371 - 3865 </t>
+  </si>
+  <si>
+    <t> (210) 574 - 8364 </t>
+  </si>
+  <si>
+    <t> (210) 309 - 2889 </t>
+  </si>
+  <si>
+    <t> (210) 200 - 7649 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 9648 </t>
+  </si>
+  <si>
+    <t> (210) 620 - 0161 </t>
+  </si>
+  <si>
+    <t> (210) 371 - 2980 </t>
+  </si>
+  <si>
+    <t> (210) 702 - 1630 </t>
+  </si>
+  <si>
+    <t> (210) 840 - 0317 </t>
+  </si>
+  <si>
+    <t> (726) 210 - 6783 </t>
+  </si>
+  <si>
+    <t> (726) 210 - 7783 </t>
+  </si>
+  <si>
+    <t> (210) 419 - 5255 </t>
+  </si>
+  <si>
+    <t> (726) 231 - 7817 </t>
+  </si>
+  <si>
+    <t> (210) 589 - 7583 </t>
+  </si>
+  <si>
+    <t> (210) 995 - 3568 </t>
+  </si>
+  <si>
+    <t> (220) 955 - 3568 </t>
+  </si>
+  <si>
+    <t> (210) 778 - 5942 </t>
+  </si>
+  <si>
+    <t> (210) 955 - 3568 </t>
+  </si>
+  <si>
+    <t> (210) 669 - 1821 </t>
+  </si>
+  <si>
+    <t> (726) 210 - 2973 </t>
+  </si>
+  <si>
+    <t> (210) 279 - 9395 </t>
+  </si>
+  <si>
+    <t> (505) 397 - 8785 </t>
+  </si>
+  <si>
+    <t> (505) 053 - 9787 </t>
+  </si>
+  <si>
+    <t> (550) 539 - 7878 </t>
+  </si>
+  <si>
+    <t> (505) 505 - 3978 </t>
+  </si>
+  <si>
+    <t> (210) 861 - 5327 </t>
+  </si>
+  <si>
+    <t> (210) 803 - 0514 </t>
+  </si>
+  <si>
+    <t> (210) 316 - 4222 </t>
+  </si>
+  <si>
+    <t> (210) 315 - 4222 </t>
+  </si>
+  <si>
+    <t> (210) 505 - 6923 </t>
+  </si>
+  <si>
+    <t> (210) 974 - 7055 </t>
+  </si>
+  <si>
+    <t> (210) 819 - 0958 </t>
+  </si>
+  <si>
+    <t> (210) 810 - 0958 </t>
+  </si>
+  <si>
+    <t> (210) 819 - 9858 </t>
+  </si>
+  <si>
+    <t> (210) 891 - 0959 </t>
+  </si>
+  <si>
+    <t> (432) 308 - 1379 </t>
+  </si>
+  <si>
+    <t> (210) 819 - 0985 </t>
+  </si>
+  <si>
+    <t> (210) 540 - 2380 </t>
+  </si>
+  <si>
+    <t> (210) 605 - 5753 </t>
+  </si>
+  <si>
+    <t> (210) 580 - 4628 </t>
+  </si>
+  <si>
+    <t> (361) 396 - 6541 </t>
+  </si>
+  <si>
+    <t> (210) 730 - 3128 </t>
+  </si>
+  <si>
+    <t> (210) 873 - 5796 </t>
+  </si>
+  <si>
+    <t> (120) 873 - 5796 </t>
+  </si>
+  <si>
+    <t> (830) 410 - 3874 </t>
+  </si>
+  <si>
+    <t> (726) 333 - 1800 </t>
+  </si>
+  <si>
+    <t> (210) 840 - 0522 </t>
+  </si>
+  <si>
+    <t> (210) 860 - 7908 </t>
+  </si>
+  <si>
+    <t> (210) 571 - 3968 </t>
+  </si>
+  <si>
+    <t> (726) 234 - 7279 </t>
+  </si>
+  <si>
+    <t> (726) 242 - 3114 </t>
+  </si>
+  <si>
+    <t> (210) 794 - 1215 </t>
+  </si>
+  <si>
+    <t> (830) 480 - 8702 </t>
+  </si>
+  <si>
+    <t> (830) 480 - 8207 </t>
+  </si>
+  <si>
+    <t> (956) 508 - 2521 </t>
+  </si>
+  <si>
+    <t> (830) 956 - 5082 </t>
+  </si>
+  <si>
+    <t> (210) 926 - 9424 </t>
+  </si>
+  <si>
+    <t> (210) 900 - 1447 </t>
+  </si>
+  <si>
+    <t> (210) 762 - 7545 </t>
+  </si>
+  <si>
+    <t> (210) 762 - 7546 </t>
+  </si>
+  <si>
+    <t> (912) 477 - 2552 </t>
+  </si>
+  <si>
+    <t> (912) 377 - 2552 </t>
+  </si>
+  <si>
+    <t> (210) 463 - 3860 </t>
+  </si>
+  <si>
+    <t> (210) 899 - 9512 </t>
+  </si>
+  <si>
+    <t> (210) 463 - 2419 </t>
+  </si>
+  <si>
+    <t> (281) 415 - 7375 </t>
+  </si>
+  <si>
+    <t> (210) 825 - 4314 </t>
+  </si>
+  <si>
+    <t> (210) 967 - 8315 </t>
+  </si>
+  <si>
+    <t> (210) 926 - 3962 </t>
+  </si>
+  <si>
+    <t> (120) 825 - 4314 </t>
+  </si>
+  <si>
+    <t> (210) 897 - 6160 </t>
+  </si>
+  <si>
+    <t> (210) 624 - 8413 </t>
+  </si>
+  <si>
+    <t> (210) 624 - 7413 </t>
+  </si>
+  <si>
+    <t> (210) 624 - 7143 </t>
+  </si>
+  <si>
+    <t> (210) 694 - 7413 </t>
+  </si>
+  <si>
+    <t> (210) 449 - 3156 </t>
+  </si>
+  <si>
+    <t> (830) 216 - 1731 </t>
+  </si>
+  <si>
+    <t> (830) 226 - 1731 </t>
+  </si>
+  <si>
+    <t> (839) 216 - 1731 </t>
+  </si>
+  <si>
+    <t> (210) 898 - 6170 </t>
+  </si>
+  <si>
+    <t> (210) 419 - 5289 </t>
+  </si>
+  <si>
+    <t> (210) 967 - 8825 </t>
+  </si>
+  <si>
+    <t> (210) 383 - 0977 </t>
+  </si>
+  <si>
+    <t> (210) 707 - 3061 </t>
+  </si>
+  <si>
+    <t> (210) 825 - 5917 </t>
+  </si>
+  <si>
+    <t> (210) 632 - 6514 </t>
+  </si>
+  <si>
+    <t> (210) 981 - 9028 </t>
+  </si>
+  <si>
+    <t> (210) 241 - 5424 </t>
+  </si>
+  <si>
+    <t> (210) 241 - 5425 </t>
+  </si>
+  <si>
+    <t> (210) 242 - 5424 </t>
+  </si>
+  <si>
+    <t> (210) 426 - 0639 </t>
+  </si>
+  <si>
+    <t> (210) 633 - 7504 </t>
+  </si>
+  <si>
+    <t> (210) 500 - 3535 </t>
+  </si>
+  <si>
+    <t> (726) 243 - 0686 </t>
+  </si>
+  <si>
+    <t> (210) 594 - 5636 </t>
+  </si>
+  <si>
+    <t> (210) 719 - 5527 </t>
+  </si>
+  <si>
+    <t> (210) 990 - 2076 </t>
+  </si>
+  <si>
+    <t> (212) 109 - 9020 </t>
+  </si>
+  <si>
+    <t> (210) 787 - 8296 </t>
+  </si>
+  <si>
+    <t> (210) 890 - 0955 </t>
+  </si>
+  <si>
+    <t> (210) 787 - 8692 </t>
+  </si>
+  <si>
+    <t> (210) 290 - 7998 </t>
+  </si>
+  <si>
+    <t> (210) 590 - 0955 </t>
+  </si>
+  <si>
+    <t> (210) 787 - 8693 </t>
+  </si>
+  <si>
+    <t> (210) 956 - 1384 </t>
+  </si>
+  <si>
+    <t> (210) 914 - 2354 </t>
+  </si>
+  <si>
+    <t> (210) 774 - 0739 </t>
+  </si>
+  <si>
+    <t> (830) 221 - 0646 </t>
+  </si>
+  <si>
+    <t> (210) 806 - 6676 </t>
+  </si>
+  <si>
+    <t> (210) 913 - 1763 </t>
+  </si>
+  <si>
+    <t> (210) 912 - 1763 </t>
+  </si>
+  <si>
+    <t> (210) 966 - 2499 </t>
+  </si>
+  <si>
+    <t> (210) 216 - 4201 </t>
+  </si>
+  <si>
+    <t> (210) 216 - 4301 </t>
+  </si>
+  <si>
+    <t> (219) 216 - 4201 </t>
+  </si>
+  <si>
+    <t> (210) 969 - 9204 </t>
+  </si>
+  <si>
+    <t> (210) 214 - 4201 </t>
+  </si>
+  <si>
+    <t> (210) 216 - 4202 </t>
+  </si>
+  <si>
+    <t> (210) 983 - 2528 </t>
+  </si>
+  <si>
+    <t> (210) 833 - 8977 </t>
+  </si>
+  <si>
+    <t> (210) 800 - 1745 </t>
+  </si>
+  <si>
+    <t> (210) 996 - 8678 </t>
+  </si>
+  <si>
+    <t> (210) 996 - 8976 </t>
+  </si>
+  <si>
+    <t> (210) 364 - 3919 </t>
+  </si>
+  <si>
+    <t> (210) 576 - 9027 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 7811 </t>
+  </si>
+  <si>
+    <t> (210) 902 - 0411 </t>
+  </si>
+  <si>
+    <t> (830) 444 - 1978 </t>
+  </si>
+  <si>
+    <t> (220) 902 - 0411 </t>
+  </si>
+  <si>
+    <t> (210) 701 - 7786 </t>
+  </si>
+  <si>
+    <t> (210) 920 - 0411 </t>
+  </si>
+  <si>
+    <t> (310) 719 - 6239 </t>
+  </si>
+  <si>
+    <t> (210) 355 - 9626 </t>
+  </si>
+  <si>
+    <t> (210) 445 - 7700 </t>
+  </si>
+  <si>
+    <t> (512) 777 - 1018 </t>
+  </si>
+  <si>
+    <t> (210) 712 - 5182 </t>
+  </si>
+  <si>
+    <t> (210) 778 - 9709 </t>
+  </si>
+  <si>
+    <t> (830) 457 - 6794 </t>
+  </si>
+  <si>
+    <t> (210) 717 - 2807 </t>
+  </si>
+  <si>
+    <t> (210) 741 - 3274 </t>
+  </si>
+  <si>
+    <t> (210) 612 - 5623 </t>
+  </si>
+  <si>
+    <t> (210) 537 - 7921 </t>
+  </si>
+  <si>
+    <t> (972) 342 - 9976 </t>
+  </si>
+  <si>
+    <t> (210) 594 - 5651 </t>
+  </si>
+  <si>
+    <t> (210) 854 - 0103 </t>
+  </si>
+  <si>
+    <t> (210) 965 - 8788 </t>
+  </si>
+  <si>
+    <t> (210) 859 - 0510 </t>
+  </si>
+  <si>
+    <t> (210) 200 - 7384 </t>
+  </si>
+  <si>
+    <t> (346) 313 - 4223 </t>
+  </si>
+  <si>
+    <t> (210) 873 - 3291 </t>
+  </si>
+  <si>
+    <t> (726) 217 - 4525 </t>
+  </si>
+  <si>
+    <t> (726) 217 - 4252 </t>
+  </si>
+  <si>
+    <t> (726) 210 - 3632 </t>
+  </si>
+  <si>
+    <t> (210) 726 - 4525 </t>
+  </si>
+  <si>
+    <t> (726) 217 - 4625 </t>
+  </si>
+  <si>
+    <t> (830) 274 - 7667 </t>
+  </si>
+  <si>
+    <t> (210) 840 - 9402 </t>
+  </si>
+  <si>
+    <t> (210) 744 - 5010 </t>
+  </si>
+  <si>
+    <t> (202) 555 - 0104 </t>
+  </si>
+  <si>
+    <t> (210) 557 - 3170 </t>
+  </si>
+  <si>
+    <t> (210) 557 - 3179 </t>
+  </si>
+  <si>
+    <t> (210) 914 - 0233 </t>
+  </si>
+  <si>
+    <t> (210) 550 - 2356 </t>
+  </si>
+  <si>
+    <t> (210) 992 - 0988 </t>
+  </si>
+  <si>
+    <t> (210) 693 - 2943 </t>
+  </si>
+  <si>
+    <t> (210) 943 - 2752 </t>
+  </si>
+  <si>
+    <t> (210) 288 - 5656 </t>
+  </si>
+  <si>
+    <t> (210) 776 - 4096 </t>
+  </si>
+  <si>
+    <t> (210) 376 - 1346 </t>
+  </si>
+  <si>
+    <t> (972) 510 - 8083 </t>
+  </si>
+  <si>
+    <t> (210) 810 - 1754 </t>
+  </si>
+  <si>
+    <t> (210) 415 - 4101 </t>
+  </si>
+  <si>
+    <t> (210) 279 - 2265 </t>
+  </si>
+  <si>
+    <t> (210) 382 - 0115 </t>
+  </si>
+  <si>
+    <t> (210) 214 - 8949 </t>
+  </si>
+  <si>
+    <t> (726) 247 - 3136 </t>
+  </si>
+  <si>
+    <t> (210) 901 - 2526 </t>
+  </si>
+  <si>
+    <t> (210) 318 - 9502 </t>
+  </si>
+  <si>
+    <t> (210) 374 - 4460 </t>
+  </si>
+  <si>
+    <t> (210) 867 - 8671 </t>
+  </si>
+  <si>
+    <t> (210) 867 - 8661 </t>
+  </si>
+  <si>
+    <t> (210) 838 - 8526 </t>
+  </si>
+  <si>
+    <t> (210) 867 - 8662 </t>
+  </si>
+  <si>
+    <t> (210) 867 - 9662 </t>
+  </si>
+  <si>
+    <t> (210) 665 - 0839 </t>
+  </si>
+  <si>
+    <t> (210) 318 - 0865 </t>
+  </si>
+  <si>
+    <t> (210) 300 - 7575 </t>
+  </si>
+  <si>
+    <t> (210) 374 - 6296 </t>
+  </si>
+  <si>
+    <t> (830) 513 - 7633 </t>
+  </si>
+  <si>
+    <t> (210) 993 - 7124 </t>
+  </si>
+  <si>
+    <t> (210) 847 - 2446 </t>
+  </si>
+  <si>
+    <t> (210) 725 - 1795 </t>
+  </si>
+  <si>
+    <t> (210) 800 - 4007 </t>
+  </si>
+  <si>
+    <t> (352) 942 - 6114 </t>
+  </si>
+  <si>
+    <t> (354) 942 - 6114 </t>
+  </si>
+  <si>
+    <t> (210) 383 - 1387 </t>
+  </si>
+  <si>
+    <t> (210) 469 - 1773 </t>
+  </si>
+  <si>
+    <t> (520) 732 - 1309 </t>
+  </si>
+  <si>
+    <t> (210) 685 - 2400 </t>
+  </si>
+  <si>
+    <t> (210) 741 - 5823 </t>
+  </si>
+  <si>
+    <t> (210) 440 - 0123 </t>
+  </si>
+  <si>
+    <t> (830) 475 - 2740 </t>
+  </si>
+  <si>
+    <t> (430) 291 - 7167 </t>
+  </si>
+  <si>
+    <t> (210) 898 - 5001 </t>
+  </si>
+  <si>
+    <t> (210) 797 - 7598 </t>
+  </si>
+  <si>
+    <t> (346) 541 - 1630 </t>
+  </si>
+  <si>
+    <t> (210) 825 - 3844 </t>
+  </si>
+  <si>
+    <t> (210) 825 - 3944 </t>
+  </si>
+  <si>
+    <t> (210) 925 - 3944 </t>
+  </si>
+  <si>
+    <t> (220) 825 - 3844 </t>
+  </si>
+  <si>
+    <t> (229) 825 - 3844 </t>
+  </si>
+  <si>
+    <t> (210) 825 - 2844 </t>
+  </si>
+  <si>
+    <t> (210) 825 - 3854 </t>
+  </si>
+  <si>
+    <t> (210) 925 - 3844 </t>
+  </si>
+  <si>
+    <t> (210) 725 - 3844 </t>
+  </si>
+  <si>
+    <t> (210) 825 - 3843 </t>
+  </si>
+  <si>
+    <t> (210) 677 - 2513 </t>
+  </si>
+  <si>
+    <t> (210) 689 - 5923 </t>
+  </si>
+  <si>
+    <t> (220) 689 - 5923 </t>
+  </si>
+  <si>
+    <t> (210) 689 - 5723 </t>
+  </si>
+  <si>
+    <t> (210) 689 - 5924 </t>
+  </si>
+  <si>
+    <t> (210) 689 - 6923 </t>
+  </si>
+  <si>
+    <t> (210) 237 - 1851 </t>
+  </si>
+  <si>
+    <t> (210) 237 - 1852 </t>
+  </si>
+  <si>
+    <t> (220) 237 - 1851 </t>
+  </si>
+  <si>
+    <t> (210) 324 - 0295 </t>
+  </si>
+  <si>
+    <t> (210) 636 - 0539 </t>
+  </si>
+  <si>
+    <t> (210) 382 - 6747 </t>
+  </si>
+  <si>
+    <t> (210) 777 - 2755 </t>
+  </si>
+  <si>
+    <t> (210) 389 - 6407 </t>
+  </si>
+  <si>
+    <t> (210) 728 - 1497 </t>
+  </si>
+  <si>
+    <t> (575) 973 - 3828 </t>
+  </si>
+  <si>
+    <t> (210) 689 - 6734 </t>
+  </si>
+  <si>
+    <t> (210) 708 - 0832 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +2133,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +2177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,50 +2462,3505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A698"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1111111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2222222222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>55555555555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A333" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A353" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A391" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A398" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A399" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A408" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A412" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A414" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A418" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A430" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A431" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A441" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A443" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A444" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A449" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A450" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A453" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A459" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A460" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A463" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A464" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A465" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A468" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A469" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A470" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A471" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A473" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A476" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A478" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A479" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A480" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A483" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A484" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A485" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A487" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A489" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A490" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A491" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A492" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A494" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A495" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A496" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A498" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A499" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A500" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A501" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A503" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A507" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A508" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A509" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A510" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A512" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A513" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A515" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A518" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A519" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A523" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A524" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A525" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A526" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A527" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A528" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A529" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A530" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A531" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A532" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A533" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A534" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A535" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A536" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A537" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A538" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A541" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A542" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A543" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A544" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A545" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A547" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A548" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A549" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A550" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A551" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A552" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A553" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A555" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A557" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A558" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A559" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A560" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A561" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A562" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A563" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A564" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A565" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A566" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A567" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A568" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A569" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A570" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A571" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A572" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A573" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A574" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A575" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A576" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A577" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A578" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A579" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A580" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A581" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A582" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A583" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A584" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A585" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A586" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A587" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A589" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A590" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A592" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A593" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A594" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A595" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A596" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A597" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A598" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A600" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A601" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A602" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A603" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A604" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A605" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A606" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A607" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A608" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A609" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A610" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A611" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A612" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A613" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A614" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A616" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A617" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A618" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A619" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A621" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A622" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A623" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A624" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A625" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A626" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A627" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A628" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A629" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A630" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A631" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A632" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A633" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A634" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A635" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A636" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A637" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A638" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A639" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A640" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A641" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A642" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A643" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A644" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A645" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A646" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A647" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A648" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A649" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A650" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A651" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A652" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A653" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A654" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A655" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A656" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A657" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A658" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A659" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A660" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A661" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A662" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A663" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A664" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A665" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A666" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A667" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A668" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A669" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A670" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A671" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A672" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A673" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A674" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A675" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A676" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A677" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A678" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A679" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A680" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A681" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A682" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A683" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A684" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A685" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A686" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A687" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A688" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A689" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A690" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A691" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A692" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A693" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A694" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A695" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A696" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A697" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A698" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
